--- a/Excel/MapSceneConfig@cs.xlsx
+++ b/Excel/MapSceneConfig@cs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitProject\ET_Framwork\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706E2C2B-F918-4EF9-AF18-5F3CE6BB613E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F7AC44-CCE2-4B12-B58F-1966E822CD79}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <t>Id</t>
   </si>
@@ -48,9 +48,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>加载的Area数据表名</t>
-  </si>
-  <si>
     <t>Area</t>
   </si>
   <si>
@@ -58,15 +55,15 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Map2AreaConfigCategory</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Recast</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>寻路文件名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>加载的Area数据表名（不需要做无缝则不填）</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -150,7 +147,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -172,6 +169,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -479,7 +477,7 @@
   <dimension ref="C3:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -499,11 +497,11 @@
       <c r="D3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>8</v>
+      <c r="E3" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="3:6" x14ac:dyDescent="0.3">
@@ -514,10 +512,10 @@
         <v>3</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="3:6" x14ac:dyDescent="0.3">
@@ -542,7 +540,7 @@
         <v>4</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>4</v>
@@ -555,9 +553,7 @@
       <c r="D7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="E7" s="8"/>
       <c r="F7" s="4" t="s">
         <v>5</v>
       </c>
@@ -570,7 +566,7 @@
         <v>6</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>6</v>
